--- a/classfiers/bottleneck/svm/smote/bottleneck-svm-default-results.xlsx
+++ b/classfiers/bottleneck/svm/smote/bottleneck-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.478021978021978</v>
+        <v>0.6891025641025641</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8093023255813954</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6010362694300518</v>
+        <v>0.8159392789373814</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5744186046511628</v>
+        <v>0.9827149810708491</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.706140350877193</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7523364485981309</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7285067873303167</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8078461204086069</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7289719626168224</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6872246696035242</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6830727574460651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6332179930795848</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8551401869158879</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.727634194831014</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7184906978775438</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4823232323232323</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8925233644859814</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6262295081967213</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5802690191283081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5899407108603977</v>
+        <v>0.9378205128205128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8076548576396435</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6741262858783257</v>
+        <v>0.9631878557874763</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6728194399023374</v>
+        <v>0.9965429962141699</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/svm/smote/bottleneck-svm-default-results.xlsx
+++ b/classfiers/bottleneck/svm/smote/bottleneck-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6891025641025641</v>
+        <v>0.7445255474452555</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8159392789373814</v>
+        <v>0.8535564853556485</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9827149810708491</v>
+        <v>0.9901719308413021</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9378205128205128</v>
+        <v>0.9489051094890512</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9631878557874763</v>
+        <v>0.9707112970711297</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9965429962141699</v>
+        <v>0.9980343861682603</v>
       </c>
     </row>
   </sheetData>
